--- a/Experimental Study Results/Experimentation Results_4 UCAV,6 Targets(3AA,1APC,2Tanks).xlsx
+++ b/Experimental Study Results/Experimentation Results_4 UCAV,6 Targets(3AA,1APC,2Tanks).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B96ECC15-4D02-42EF-9F12-ECF88B3CEEA9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B96ECC15-4D02-42EF-9F12-ECF88B3CEEA9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{CBD96968-FD55-43EC-962E-5AA8D38DA742}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
     <t>Amount of UCAV at the end of the mission - B</t>
   </si>
   <si>
-    <t>SpecOps JATC assigning Targets - 4 UCAV,6 Targets(3AA,1APC,2Tanks)</t>
+    <t>SpecOps JTAC assigning targets - 4 UCAV,6 Targets(3AA,1APC,2Tanks)</t>
   </si>
 </sst>
 </file>
@@ -733,14 +733,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -769,35 +796,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1103,109 +1103,109 @@
     <col min="14" max="14" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="82" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:14" s="62" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+    <row r="2" spans="1:14" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="75" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+    <row r="4" spans="1:14" s="64" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="64" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="H5" s="78" t="s">
+      <c r="B5" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="H5" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="74" t="s">
+      <c r="A6" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="65" t="s">
+      <c r="D6" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="71" t="s">
+      <c r="H6" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="71" t="s">
+      <c r="K6" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="74" t="s">
+      <c r="L6" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="62" t="s">
+      <c r="M6" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="N6" s="74" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="66"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="66"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="75"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="75"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="67"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="67"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="76"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="76"/>
     </row>
     <row r="9" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -2487,99 +2487,99 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:14" s="75" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="75" t="s">
+    <row r="42" spans="1:14" s="64" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="64" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="H43" s="78" t="s">
+      <c r="B43" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="H43" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="74" t="s">
+      <c r="A44" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="65" t="s">
+      <c r="D44" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="71" t="s">
+      <c r="H44" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="J44" s="71" t="s">
+      <c r="J44" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="K44" s="71" t="s">
+      <c r="K44" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="L44" s="74" t="s">
+      <c r="L44" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M44" s="62" t="s">
+      <c r="M44" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="N44" s="65" t="s">
+      <c r="N44" s="74" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="66"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="72"/>
-      <c r="L45" s="63"/>
-      <c r="M45" s="63"/>
-      <c r="N45" s="66"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="75"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="75"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="64"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="67"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="67"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="76"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="76"/>
     </row>
     <row r="47" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
@@ -3941,16 +3941,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A4:XFD4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="L44:L46"/>
     <mergeCell ref="M6:M8"/>
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="A42:XFD42"/>
@@ -3967,14 +3965,16 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="N44:N46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
